--- a/tabela_completa.xlsx
+++ b/tabela_completa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Documentos\360_novo\360\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8022ABB7-29F9-47C8-A488-05ECDB3CC4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Completa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>situacao</t>
   </si>
@@ -157,22 +151,13 @@
     <t>comunicacao_padronizada</t>
   </si>
   <si>
-    <t>Arquivado</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
     <t>DE 1/2024</t>
   </si>
   <si>
-    <t>DE 4/2024</t>
-  </si>
-  <si>
-    <t>DE 5/2024</t>
-  </si>
-  <si>
-    <t>DE 6/2024</t>
+    <t>DE 2/2024</t>
   </si>
   <si>
     <t>Dispensa Eletrônica</t>
@@ -181,104 +166,41 @@
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>2</t>
   </si>
   <si>
     <t>2024</t>
   </si>
   <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>testesxxxxxxxx</t>
-  </si>
-  <si>
     <t>teste</t>
   </si>
   <si>
     <t>2 (dois) meses</t>
   </si>
   <si>
-    <t>2024-11-05</t>
-  </si>
-  <si>
     <t>787010</t>
   </si>
   <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
-    <t>ERMB</t>
-  </si>
-  <si>
     <t>CeIMBra</t>
   </si>
   <si>
-    <t>Divisão de Pagamento</t>
-  </si>
-  <si>
-    <t>Necessário</t>
-  </si>
-  <si>
-    <t>Segunda à Sexta</t>
-  </si>
-  <si>
-    <t>09 às 11h20 e 14 às 16h30</t>
-  </si>
-  <si>
-    <t>8700</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>00394502000144</t>
-  </si>
-  <si>
-    <t>002900</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DE 7/2024</t>
-  </si>
-  <si>
-    <t>DE 8/2024</t>
-  </si>
-  <si>
-    <t>DE 9/2024</t>
-  </si>
-  <si>
-    <t>DE 10/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,12 +212,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,21 +263,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -399,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -433,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -468,10 +375,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -644,19 +550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,396 +694,89 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="R3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="AP3" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabela_completa.xlsx
+++ b/tabela_completa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>situacao</t>
   </si>
@@ -178,19 +178,82 @@
     <t>Material</t>
   </si>
   <si>
-    <t>teste</t>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>testesx</t>
   </si>
   <si>
     <t>2 (dois) meses</t>
   </si>
   <si>
-    <t>787010</t>
-  </si>
-  <si>
-    <t>Centro de Intendência da Marinha em Brasília</t>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>LETÍCIA MORAES SALES
+CB-AD
+Operadora de Dispensa Eletrônica</t>
+  </si>
+  <si>
+    <t>Menor Preço</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
   <si>
     <t>CeIMBra</t>
+  </si>
+  <si>
+    <t>CFGO</t>
+  </si>
+  <si>
+    <t>Divisão de Abastecimento</t>
+  </si>
+  <si>
+    <t>RAMON DE LIMA FERNANDES
+Capitão de Corveta (IM)
+Encarregado da Divisão de Municiamento</t>
+  </si>
+  <si>
+    <t>THIAGO MARTINS AMORIM
+Capitão de Fragata (IM)
+Ordenador de Despesa Substituto</t>
+  </si>
+  <si>
+    <t>GUILHERME KIRSCHNER DE SIQUEIRA CAMPOS
+Capitão de Corveta (IM)
+Agente Fiscal Substituto</t>
+  </si>
+  <si>
+    <t>THIAGO MARTINS AMORIM
+Capitão de Fragata (IM)
+Agente Fiscal</t>
+  </si>
+  <si>
+    <t>IGOR DA SILVA COSTA
+Primeiro-Sargento (ES)
+Gerente de Crédito</t>
+  </si>
+  <si>
+    <t>Necessário</t>
+  </si>
+  <si>
+    <t>Segunda à Sexta</t>
+  </si>
+  <si>
+    <t>09 às 11h20 e 14 às 16h30</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>00394502000144</t>
@@ -720,19 +783,43 @@
         <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>62</v>
       </c>
       <c r="AP2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -758,22 +845,76 @@
         <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
-        <v>57</v>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>62</v>
       </c>
       <c r="AP3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/tabela_completa.xlsx
+++ b/tabela_completa.xlsx
@@ -178,6 +178,9 @@
     <t>Material</t>
   </si>
   <si>
+    <t>Serviço</t>
+  </si>
+  <si>
     <t>testes</t>
   </si>
   <si>
@@ -193,9 +196,9 @@
     <t>2024-11-13</t>
   </si>
   <si>
-    <t>LETÍCIA MORAES SALES
-CB-AD
-Operadora de Dispensa Eletrônica</t>
+    <t>BRUNO PEREIRA DA SILVA
+1ºSG-AR
+Operador de Dispensa Eletrônica</t>
   </si>
   <si>
     <t>Menor Preço</t>
@@ -216,9 +219,9 @@
     <t>Divisão de Abastecimento</t>
   </si>
   <si>
-    <t>RAMON DE LIMA FERNANDES
-Capitão de Corveta (IM)
-Encarregado da Divisão de Municiamento</t>
+    <t>TESTE
+Capitão-Tenente (Rm2-T)
+Encarregada da Divisão de Administração</t>
   </si>
   <si>
     <t>THIAGO MARTINS AMORIM
@@ -231,11 +234,6 @@
 Agente Fiscal Substituto</t>
   </si>
   <si>
-    <t>THIAGO MARTINS AMORIM
-Capitão de Fragata (IM)
-Agente Fiscal</t>
-  </si>
-  <si>
     <t>IGOR DA SILVA COSTA
 Primeiro-Sargento (ES)
 Gerente de Crédito</t>
@@ -250,10 +248,10 @@
     <t>09 às 11h20 e 14 às 16h30</t>
   </si>
   <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>700</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>00394502000144</t>
@@ -780,31 +778,31 @@
         <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z2" t="s">
         <v>71</v>
@@ -816,7 +814,7 @@
         <v>73</v>
       </c>
       <c r="AM2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AP2" t="s">
         <v>76</v>
@@ -842,40 +840,40 @@
         <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V3" t="s">
         <v>69</v>
